--- a/artfynd/A 46237-2020.xlsx
+++ b/artfynd/A 46237-2020.xlsx
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>636787.7600896738</v>
+        <v>636788</v>
       </c>
       <c r="R9" t="n">
-        <v>6546803.494876944</v>
+        <v>6546803</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1618,19 +1618,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
